--- a/data/Gerardo TorresT2-2024.xlsx
+++ b/data/Gerardo TorresT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I199"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>595.96627191</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -3934,6 +3936,7 @@
         <v>6.129e-05</v>
       </c>
     </row>
+    <row r="198"/>
     <row r="199">
       <c r="D199" s="6" t="inlineStr">
         <is>
@@ -3959,7 +3962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3972,6 +3975,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3979,6 +3984,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3986,6 +3992,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -4472,6 +4479,7 @@
         <v>0.00076623</v>
       </c>
     </row>
+    <row r="45"/>
     <row r="46">
       <c r="C46" s="6" t="inlineStr">
         <is>
@@ -4497,7 +4505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4510,6 +4518,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -4517,6 +4527,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -4524,6 +4535,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -4685,6 +4697,7 @@
         <v>8.8e-07</v>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="C21" s="6" t="inlineStr">
         <is>
